--- a/FmodStudio/Assets/Resources/Excel/MergeItems.xlsx
+++ b/FmodStudio/Assets/Resources/Excel/MergeItems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\UnityProject\FmodStuido\FSProject\FmodStudio\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE8648C-3195-4E9E-AEC8-3E6609BA40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12602FB-4664-46AE-9BED-41851EFF26D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9015" yWindow="3630" windowWidth="18510" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -80,6 +80,62 @@
   </si>
   <si>
     <t>1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestList1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestList3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;float&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.35,1,62</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.56,5,67,8889,6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好”,“吃了吗”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好2”,“吃了”</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestArray1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD34"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,7 +519,7 @@
     <col min="5" max="5" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -479,8 +535,17 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -496,8 +561,17 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -513,8 +587,17 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -530,8 +613,17 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -546,6 +638,15 @@
       </c>
       <c r="E5" t="s">
         <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
